--- a/linkage_study/Linkage_data.xlsx
+++ b/linkage_study/Linkage_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Servo" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="132">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -345,82 +345,82 @@
     <t xml:space="preserve">https://doi.org/10.1017/S0263574719000997</t>
   </si>
   <si>
+    <t xml:space="preserve">Madeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vassar College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiftBased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1088/1748-3182/1/1/003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita State IPMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1115/DSCC2016-9915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV Robotic Mantaray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://brcl.me.uh.edu/Paper/JSMN11.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of EC PFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shintake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Electro-communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1109/ROBOT.2009.5152723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Live Muscle Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/1743-0003-1-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naro-Tartaruga</t>
   </si>
   <si>
     <t xml:space="preserve">Naro</t>
   </si>
   <si>
-    <t xml:space="preserve">LiftBased</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.naro.ethz.ch/p2/tartaruga.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vassar College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1088/1748-3182/1/1/003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita State IPMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1115/DSCC2016-9915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV Robotic Mantaray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajiform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://brcl.me.uh.edu/Paper/JSMN11.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of EC PFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shintake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Electro-communications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1109/ROBOT.2009.5152723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard Live Muscle Fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1186/1743-0003-1-6</t>
   </si>
 </sst>
 </file>
@@ -436,6 +436,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -585,23 +586,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -616,7 +600,7 @@
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -1664,13 +1648,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO13"/>
+  <dimension ref="A1:BO12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
@@ -2252,131 +2236,135 @@
         <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="n">
         <f aca="false">F9</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="3" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>75</v>
+        <v>24.4</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>2</v>
+        <v>0.77</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>2</v>
+        <v>0.77</v>
       </c>
       <c r="O9" s="3" t="n">
         <f aca="false">P9/L9</f>
-        <v>1.536</v>
+        <v>3.4335</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>115.2</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <f aca="false">P9*I8</f>
-        <v>46.08</v>
+        <v>83.7774</v>
+      </c>
+      <c r="Q9" s="3" t="e">
+        <f aca="false">P9*#REF!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <f aca="false">ROUND(TAN(RADIANS(20))*0.153,2)</f>
+        <v>0.06</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="3" t="n">
-        <v>100</v>
-      </c>
       <c r="W9" s="6"/>
       <c r="AB9" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <f aca="false">F10</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <f aca="false">P10/L10</f>
-        <v>3.4335</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>83.7774</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <f aca="false">P10*I9</f>
-        <v>83.7774</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <f aca="false">ROUND(TAN(RADIANS(20))*0.153,2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="AB10" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -2447,6 +2435,1173 @@
       <c r="BN12" s="3"/>
       <c r="BO12" s="3"/>
     </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.00935</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <f aca="false">P2/L2</f>
+        <v>3565.06</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>534.759</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <f aca="false">P2*I2</f>
+        <v>9.625662</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">F3</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.00737</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <f aca="false">P3/L3</f>
+        <v>6167.45454545455</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>339.21</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <f aca="false">P3*I3</f>
+        <v>37.3131</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <f aca="false">0.45*0.085</f>
+        <v>0.03825</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="AB3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">F4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="3" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <f aca="false">P4/L4</f>
+        <v>229.42962962963</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>3.0973</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <f aca="false">P4*I4</f>
+        <v>0.6999898</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="AB4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BO13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>3.95588235294118</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>9.2805</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.13846153846154</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>8.4588</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>8.76923076923077</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>22.1953188135593</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>130.952381</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>91.6666667</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>24.6864634146341</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>40.4858</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>40.080942</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>162.884</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>146.5956</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>51.8762886597938</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>17.612</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>64.8145833333333</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>933.33</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>1493.328</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0.46185</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>11.0952</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>1.331424</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+    </row>
     <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
@@ -2527,1242 +3682,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.03"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0.00935</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <f aca="false">P2/L2</f>
-        <v>3565.06</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>534.759</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <f aca="false">P2*I2</f>
-        <v>9.625662</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <f aca="false">F3</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0.00737</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <f aca="false">P3/L3</f>
-        <v>6167.45454545455</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>339.21</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <f aca="false">P3*I3</f>
-        <v>37.3131</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <f aca="false">0.45*0.085</f>
-        <v>0.03825</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="AB3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <f aca="false">F4</f>
-        <v>2</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="3" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <f aca="false">P4/L4</f>
-        <v>229.42962962963</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>3.0973</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <f aca="false">P4*I4</f>
-        <v>0.6999898</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="U4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="AB4" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="8"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BO13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.03"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>3.95588235294118</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>9.2805</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>6.13846153846154</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>8.4588</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>8.76923076923077</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>22.1953188135593</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>130.952381</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>91.6666667</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0.2475</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0.2475</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>24.6864634146341</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>40.4858</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>40.080942</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>37.88</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>162.884</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>146.5956</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>51.8762886597938</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>50.32</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>17.612</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y8" s="3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>64.8145833333333</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>933.33</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>1493.328</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>0.46185</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>11.0952</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>1.331424</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3770,11 +3689,11 @@
   </sheetPr>
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
@@ -4177,9 +4096,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="36.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="23.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="5" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="19.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="5" width="11.52"/>
@@ -4489,10 +4408,10 @@
     </row>
     <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>77</v>
@@ -4501,7 +4420,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>2</v>
@@ -4561,7 +4480,7 @@
         <v>0.096</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,19 +5263,19 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>3</v>
@@ -5403,7 +5322,7 @@
         <v>2</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,19 +5592,19 @@
     </row>
     <row r="22" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>2</v>
@@ -5734,7 +5653,7 @@
       <c r="U22" s="6"/>
       <c r="W22" s="6"/>
       <c r="AB22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5802,16 +5721,16 @@
     </row>
     <row r="24" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>82</v>
@@ -5862,21 +5781,21 @@
       </c>
       <c r="W24" s="6"/>
       <c r="AB24" s="3" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>82</v>
@@ -5934,7 +5853,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -5978,19 +5897,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>2</v>
@@ -6042,7 +5961,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
